--- a/controllers/whatsappContacts.xlsx
+++ b/controllers/whatsappContacts.xlsx
@@ -1,29 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxx\Documents\hfy-back-system\controllers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A77D6C3-0732-4D3C-BFEE-640FD185A16A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+  <si>
+    <t>+52</t>
+  </si>
+  <si>
+    <t>🥳🤩🤠👻🤩🥳</t>
+  </si>
+  <si>
+    <t>+525611702076</t>
+  </si>
+  <si>
+    <t>ROSS</t>
+  </si>
+  <si>
+    <t>Humberto San Martin</t>
+  </si>
+  <si>
+    <t>+5217821413525</t>
+  </si>
+  <si>
+    <t>Humber PT</t>
+  </si>
+  <si>
+    <t>Yahir</t>
+  </si>
+  <si>
+    <t>+5215617767051</t>
+  </si>
+  <si>
+    <t>The King Developer</t>
+  </si>
+  <si>
+    <t>+5215611890936</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Noé</t>
+  </si>
+  <si>
+    <t>+5215611278220</t>
+  </si>
+  <si>
+    <t>Noe</t>
+  </si>
+  <si>
+    <t>[object Object]</t>
+  </si>
+  <si>
+    <t>+5215562100512</t>
+  </si>
+  <si>
+    <t>Aldair González</t>
+  </si>
+  <si>
+    <t>Jessica AC</t>
+  </si>
+  <si>
+    <t>+5215549643574</t>
+  </si>
+  <si>
+    <t>Gerardo A. Martínez</t>
+  </si>
+  <si>
+    <t>+5215542534273</t>
+  </si>
+  <si>
+    <t>Alex PT</t>
+  </si>
+  <si>
+    <t>Cesar 🍍</t>
+  </si>
+  <si>
+    <t>+5215539832823</t>
+  </si>
+  <si>
+    <t>Migue</t>
+  </si>
+  <si>
+    <t>+5215534038519</t>
+  </si>
+  <si>
+    <t>+5215528625679</t>
+  </si>
+  <si>
+    <t>Oscar Pt</t>
+  </si>
+  <si>
+    <t>Mario Gaytan</t>
+  </si>
+  <si>
+    <t>+5215514895574</t>
+  </si>
+  <si>
+    <t>Tonatiu</t>
+  </si>
+  <si>
+    <t>+5212381055668</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Contactos</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>contacto</t>
+  </si>
+  <si>
+    <t>savedName</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
+      <b/>
       <sz val="24"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
       <sz val="18"/>
@@ -32,30 +157,18 @@
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7CFC00"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -64,21 +177,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,236 +522,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.57421875" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.57421875" customWidth="1"/>
-    <col min="4" max="4" width="28.57421875" customWidth="1"/>
-    <col min="5" max="5" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="57.125" customWidth="1"/>
+    <col min="3" max="4" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v xml:space="preserve">Country Code 	</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v xml:space="preserve">Contact's Public Display Name 			</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v xml:space="preserve">Phone Number 					</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <v xml:space="preserve">Is My Contact 			  </v>
-      </c>
-      <c r="E1" s="3" t="str">
-        <v xml:space="preserve">Saved Name 					</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>🥳🤩🤠👻🤩🥳</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>+525611702076</v>
-      </c>
-      <c r="D2" s="4" t="b">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="str">
-        <v>ROSS</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <v>Humberto San Martin</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <v>+5217821413525</v>
-      </c>
-      <c r="D3" s="4" t="b">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <v>Humber PT</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v>Yahir</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>+5215617767051</v>
-      </c>
-      <c r="D4" s="4" t="b">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="str">
-        <v>Yahir</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <v>The King Developer</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <v>+5215611890936</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <v>Noé</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>+5215611278220</v>
-      </c>
-      <c r="D6" s="4" t="b">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <v>Noe</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <v>[object Object]</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <v>+5215562100512</v>
-      </c>
-      <c r="D7" s="4" t="b">
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="str">
-        <v>Aldair González</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <v>Jessica AC</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>+5215549643574</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B9" s="4" t="str">
-        <v>Gerardo A. Martínez</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <v>+5215542534273</v>
-      </c>
-      <c r="D9" s="4" t="b">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="str">
-        <v>Alex PT</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <v>Cesar 🍍</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v>+5215539832823</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B11" s="4" t="str">
-        <v>Migue</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <v>+5215534038519</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v>+5215528625679</v>
-      </c>
-      <c r="D12" s="4" t="b">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="str">
-        <v>Oscar Pt</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <v>Mario Gaytan</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <v>+5215514895574</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="str">
-        <v>+52</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <v>Tonatiu</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <v>+5212381055668</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <v/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>